--- a/benchmarks/mc2022/v01-nolemmas-totalXdefinition.xlsx
+++ b/benchmarks/mc2022/v01-nolemmas-totalXdefinition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6EBF8F5-143C-224B-B41E-F994DAA23E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{74E621A4-3C3D-6E44-A3B6-A2F9D990694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58780" yWindow="500" windowWidth="35140" windowHeight="26660"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Instance</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>mc2022_track2_149</t>
+  </si>
+  <si>
+    <t>mc2022_track1_149</t>
   </si>
 </sst>
 </file>
@@ -852,64 +855,64 @@
                   <c:v>574062</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>401032</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>6074672</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>132891</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>65522</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>143191</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>2851</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>5243</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>334862</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>2659</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>82585</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>447979</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>1891045</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>470934</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>3131</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>2515</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>1107098</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>467550</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>3109</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>899701</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>453769</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>402460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,64 +996,64 @@
                   <c:v>60648970</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>1265347</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>67546121</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1152461</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>387779</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1293842</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>51856</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>551768</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>9354510</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>80192</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>3538121</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>6700041</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>59935665</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>22665713</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>119576</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>34184</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>77671973</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>2776931</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>66010</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>3329593</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>5497219</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1492688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,16 +2219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2516,221 +2516,232 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>6074672</v>
+        <v>401032</v>
       </c>
       <c r="C26">
-        <v>67546121</v>
+        <v>1265347</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>132891</v>
+        <v>6074672</v>
       </c>
       <c r="C27">
-        <v>1152461</v>
+        <v>67546121</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>65522</v>
+        <v>132891</v>
       </c>
       <c r="C28">
-        <v>387779</v>
+        <v>1152461</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>143191</v>
+        <v>65522</v>
       </c>
       <c r="C29">
-        <v>1293842</v>
+        <v>387779</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>2851</v>
+        <v>143191</v>
       </c>
       <c r="C30">
-        <v>51856</v>
+        <v>1293842</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>5243</v>
+        <v>2851</v>
       </c>
       <c r="C31">
-        <v>551768</v>
+        <v>51856</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>334862</v>
+        <v>5243</v>
       </c>
       <c r="C32">
-        <v>9354510</v>
+        <v>551768</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>2659</v>
+        <v>334862</v>
       </c>
       <c r="C33">
-        <v>80192</v>
+        <v>9354510</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>82585</v>
+        <v>2659</v>
       </c>
       <c r="C34">
-        <v>3538121</v>
+        <v>80192</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>447979</v>
+        <v>82585</v>
       </c>
       <c r="C35">
-        <v>6700041</v>
+        <v>3538121</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>1891045</v>
+        <v>447979</v>
       </c>
       <c r="C36">
-        <v>59935665</v>
+        <v>6700041</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>470934</v>
+        <v>1891045</v>
       </c>
       <c r="C37">
-        <v>22665713</v>
+        <v>59935665</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>3131</v>
+        <v>470934</v>
       </c>
       <c r="C38">
-        <v>119576</v>
+        <v>22665713</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>2515</v>
+        <v>3131</v>
       </c>
       <c r="C39">
-        <v>34184</v>
+        <v>119576</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>1107098</v>
+        <v>2515</v>
       </c>
       <c r="C40">
-        <v>77671973</v>
+        <v>34184</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>467550</v>
+        <v>1107098</v>
       </c>
       <c r="C41">
-        <v>2776931</v>
+        <v>77671973</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>3109</v>
+        <v>467550</v>
       </c>
       <c r="C42">
-        <v>66010</v>
+        <v>2776931</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>899701</v>
+        <v>3109</v>
       </c>
       <c r="C43">
-        <v>3329593</v>
+        <v>66010</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>453769</v>
+        <v>899701</v>
       </c>
       <c r="C44">
-        <v>5497219</v>
+        <v>3329593</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>453769</v>
+      </c>
+      <c r="C45">
+        <v>5497219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>402460</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>1492688</v>
       </c>
     </row>

--- a/benchmarks/mc2022/v01-nolemmas-totalXdefinition.xlsx
+++ b/benchmarks/mc2022/v01-nolemmas-totalXdefinition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{74E621A4-3C3D-6E44-A3B6-A2F9D990694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EB847AB4-91CF-734D-87E5-318D45956E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58780" yWindow="500" windowWidth="35140" windowHeight="26660"/>
+    <workbookView xWindow="64000" yWindow="3220" windowWidth="35140" windowHeight="26660"/>
   </bookViews>
   <sheets>
     <sheet name="v01-total+definition" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,20 @@
     <definedName name="_xlchart.v1.8" hidden="1">'v01-total+definition'!$D$2:$D$3</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'v01-total+definition'!$E$2:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1069,12 +1082,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unit</c:v>
+            <c:v>1X</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1129,6 +1145,135 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2FF0-8242-B985-353561E4F759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'v01-total+definition'!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'v01-total+definition'!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2FF0-8242-B985-353561E4F759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100X</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'v01-total+definition'!$D$6:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'v01-total+definition'!$F$6:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2FF0-8242-B985-353561E4F759}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2222,7 +2367,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,6 +2427,12 @@
       <c r="C4">
         <v>939913</v>
       </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2293,6 +2444,12 @@
       <c r="C5">
         <v>26314</v>
       </c>
+      <c r="D5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100000000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2304,6 +2461,12 @@
       <c r="C6">
         <v>535</v>
       </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2314,6 +2477,12 @@
       </c>
       <c r="C7">
         <v>309354</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
